--- a/data/trans_dic/PER_DISPO_VERDE-Edad-trans_dic.xlsx
+++ b/data/trans_dic/PER_DISPO_VERDE-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +557,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>97,09%</t>
+          <t>90,23%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>90,4%</t>
+          <t>88,91%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>93,5%</t>
+          <t>89,59%</t>
         </is>
       </c>
     </row>
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>88,76; 100,0</t>
+          <t>84,7; 94,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79,67; 96,49</t>
+          <t>81,32; 93,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>87,89; 96,74</t>
+          <t>85,32; 92,73</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +607,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>88,29%</t>
+          <t>85,8%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>96,12%</t>
+          <t>86,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>92,2%</t>
+          <t>86,32%</t>
         </is>
       </c>
     </row>
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>78,47; 94,41</t>
+          <t>80,77; 90,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>90,68; 98,95</t>
+          <t>82,03; 90,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,77; 95,69</t>
+          <t>82,38; 89,23</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +657,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>89,87%</t>
+          <t>87,89%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>94,36%</t>
+          <t>86,53%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>91,98%</t>
+          <t>87,23%</t>
         </is>
       </c>
     </row>
@@ -679,24 +680,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>82,71; 94,87</t>
+          <t>81,66; 91,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>87,23; 98,06</t>
+          <t>81,59; 90,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,15; 95,39</t>
+          <t>83,71; 90,08</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +707,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>90,23%</t>
+          <t>88,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>88,91%</t>
+          <t>87,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>89,59%</t>
+          <t>88,27%</t>
         </is>
       </c>
     </row>
@@ -729,24 +730,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>84,28; 93,96</t>
+          <t>83,94; 92,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>81,78; 93,29</t>
+          <t>82,68; 91,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,32; 92,7</t>
+          <t>85,16; 91,03</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +757,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>85,8%</t>
+          <t>87,92%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>86,82%</t>
+          <t>84,78%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>86,32%</t>
+          <t>86,22%</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>80,71; 89,76</t>
+          <t>82,9; 91,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>81,54; 90,79</t>
+          <t>77,62; 89,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>82,99; 89,39</t>
+          <t>82,32; 89,31</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,12 +807,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>87,89%</t>
+          <t>88,29%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>86,53%</t>
+          <t>86,4%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>82,38; 91,62</t>
+          <t>82,31; 92,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>82,0; 90,46</t>
+          <t>80,42; 90,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>83,41; 90,28</t>
+          <t>83,42; 90,5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +857,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>88,92%</t>
+          <t>82,11%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>87,64%</t>
+          <t>79,3%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>88,27%</t>
+          <t>80,36%</t>
         </is>
       </c>
     </row>
@@ -879,24 +880,24 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>84,43; 92,75</t>
+          <t>74,47; 88,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>82,6; 91,47</t>
+          <t>72,59; 84,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>84,91; 91,28</t>
+          <t>75,82; 84,27</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -906,17 +907,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>87,92%</t>
+          <t>87,38%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>84,78%</t>
+          <t>85,58%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>86,22%</t>
+          <t>86,43%</t>
         </is>
       </c>
     </row>
@@ -929,185 +930,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>82,88; 91,47</t>
+          <t>85,38; 89,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>78,53; 89,83</t>
+          <t>83,59; 87,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>82,11; 89,48</t>
+          <t>85,01; 87,75</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>88,29%</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>86,4%</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>87,23%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>82,31; 92,73</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>80,19; 90,81</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>83,18; 90,62</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>82,11%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>79,3%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>80,36%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>75,03; 88,05</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>73,33; 84,04</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>76,0; 84,48</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>87,87%</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>86,6%</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>87,2%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>86,13; 89,45</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>84,8; 88,17</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>86,01; 88,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -1117,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Percepción de la disponibilidad de zonas verdes</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16/24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>58356</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>54717</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>113073</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>54777; 61082</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>50046; 57396</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>107691; 117044</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25/34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>104596</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>111158</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>215753</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>98459; 110071</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>105028; 116268</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>205899; 223008</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35/44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>122496</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>113727</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>236222</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>113813; 127692</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>107230; 118639</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>226674; 243935</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45/54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>104619</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>104753</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>209372</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>98752; 109105</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>98825; 109289</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>201984; 215909</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55/64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>86171</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>97929</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>184100</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>81252; 89977</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>89661; 103114</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>175777; 190692</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65/74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>61013</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>76342</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>137355</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>56879; 63975</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>71055; 80055</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>131358; 142502</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 y más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>56365</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>90361</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>146726</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>51117; 60461</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>82721; 96472</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>138440; 153867</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>1415</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1596</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>3011</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>593617</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>648986</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1242603</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>580019; 604952</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>633875; 662427</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1222207; 1261531</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/PER_DISPO_VERDE-Edad-trans_dic.xlsx
+++ b/data/trans_dic/PER_DISPO_VERDE-Edad-trans_dic.xlsx
@@ -498,7 +498,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de la disponibilidad de zonas verdes</t>
+          <t>Percepción de la disponibilidad de zonas verdes (tasa de respuesta: 99,83%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -994,7 +994,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de la disponibilidad de zonas verdes</t>
+          <t>Percepción de la disponibilidad de zonas verdes (tasa de respuesta: 99,83%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/PER_DISPO_VERDE-Edad-trans_dic.xlsx
+++ b/data/trans_dic/PER_DISPO_VERDE-Edad-trans_dic.xlsx
@@ -580,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>84,7; 94,45</t>
+          <t>85,02; 94,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>81,32; 93,27</t>
+          <t>82,67; 93,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>85,32; 92,73</t>
+          <t>85,78; 92,67</t>
         </is>
       </c>
     </row>
@@ -630,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>80,77; 90,29</t>
+          <t>80,56; 89,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>82,03; 90,81</t>
+          <t>81,21; 90,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,38; 89,23</t>
+          <t>82,39; 89,11</t>
         </is>
       </c>
     </row>
@@ -680,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>81,66; 91,62</t>
+          <t>82,14; 91,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81,59; 90,27</t>
+          <t>81,17; 90,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>83,71; 90,08</t>
+          <t>83,78; 90,13</t>
         </is>
       </c>
     </row>
@@ -730,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,94; 92,74</t>
+          <t>84,15; 92,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82,68; 91,43</t>
+          <t>82,26; 91,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,16; 91,03</t>
+          <t>85,06; 90,93</t>
         </is>
       </c>
     </row>
@@ -780,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>82,9; 91,8</t>
+          <t>82,74; 91,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>77,62; 89,27</t>
+          <t>77,98; 89,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>82,32; 89,31</t>
+          <t>82,18; 89,62</t>
         </is>
       </c>
     </row>
@@ -830,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>82,31; 92,58</t>
+          <t>81,85; 92,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>80,42; 90,6</t>
+          <t>80,43; 90,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>83,42; 90,5</t>
+          <t>83,11; 90,2</t>
         </is>
       </c>
     </row>
@@ -880,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>74,47; 88,08</t>
+          <t>73,92; 88,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>72,59; 84,66</t>
+          <t>73,65; 84,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>75,82; 84,27</t>
+          <t>75,68; 84,58</t>
         </is>
       </c>
     </row>
@@ -930,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>85,38; 89,05</t>
+          <t>85,41; 89,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>83,59; 87,35</t>
+          <t>83,61; 87,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>85,01; 87,75</t>
+          <t>84,98; 87,72</t>
         </is>
       </c>
     </row>
@@ -1099,17 +1099,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>54777; 61082</t>
+          <t>54984; 60835</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>50046; 57396</t>
+          <t>50873; 57544</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>107691; 117044</t>
+          <t>108271; 116966</t>
         </is>
       </c>
     </row>
@@ -1172,17 +1172,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>98459; 110071</t>
+          <t>98203; 109170</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>105028; 116268</t>
+          <t>103977; 116286</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>205899; 223008</t>
+          <t>205925; 222712</t>
         </is>
       </c>
     </row>
@@ -1245,17 +1245,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>113813; 127692</t>
+          <t>114482; 127850</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>107230; 118639</t>
+          <t>106684; 118584</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>226674; 243935</t>
+          <t>226868; 244070</t>
         </is>
       </c>
     </row>
@@ -1318,17 +1318,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>98752; 109105</t>
+          <t>99008; 108994</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>98825; 109289</t>
+          <t>98329; 109073</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>201984; 215909</t>
+          <t>201745; 215661</t>
         </is>
       </c>
     </row>
@@ -1391,17 +1391,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>81252; 89977</t>
+          <t>81096; 90122</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>89661; 103114</t>
+          <t>90076; 103271</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>175777; 190692</t>
+          <t>175478; 191353</t>
         </is>
       </c>
     </row>
@@ -1464,17 +1464,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>56879; 63975</t>
+          <t>56563; 63836</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>71055; 80055</t>
+          <t>71071; 80136</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>131358; 142502</t>
+          <t>130868; 142027</t>
         </is>
       </c>
     </row>
@@ -1537,17 +1537,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>51117; 60461</t>
+          <t>50743; 60521</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>82721; 96472</t>
+          <t>83922; 96602</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>138440; 153867</t>
+          <t>138190; 154443</t>
         </is>
       </c>
     </row>
@@ -1610,17 +1610,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>580019; 604952</t>
+          <t>580268; 606772</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>633875; 662427</t>
+          <t>634045; 662192</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>1222207; 1261531</t>
+          <t>1221780; 1261120</t>
         </is>
       </c>
     </row>
